--- a/Producción fiscalizada de crudo año 2013.xlsx
+++ b/Producción fiscalizada de crudo año 2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D228D98B-73B9-45BA-8503-D1A9940F980F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4894CE1-F149-40B4-9BDA-4B30618B32DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2077,9 +2077,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2428,7 +2426,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25005,15 +25003,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F930251186CB0499D7625AA475F410A" ma:contentTypeVersion="1" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="418ac9787a3dc47b1a26e96bf56cbbc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4afde810-2293-4670-bb5c-117753097ca5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85a954d37448c6d1ce4186c211e8601e" ns2:_="">
     <xsd:import namespace="4afde810-2293-4670-bb5c-117753097ca5"/>
@@ -25153,6 +25142,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -25160,14 +25158,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{377CB5CF-E0B7-41D0-A636-2883B4A20C3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13DE939B-0F84-4FE0-AAEA-DD4A7D1F5D72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25185,6 +25175,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{377CB5CF-E0B7-41D0-A636-2883B4A20C3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{262830A7-F958-46BD-9C55-942BB744B58F}">
   <ds:schemaRefs>

--- a/Producción fiscalizada de crudo año 2013.xlsx
+++ b/Producción fiscalizada de crudo año 2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4894CE1-F149-40B4-9BDA-4B30618B32DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C809649-9BA2-426F-B333-23498ED24A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2077,7 +2077,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25003,6 +25003,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F930251186CB0499D7625AA475F410A" ma:contentTypeVersion="1" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="418ac9787a3dc47b1a26e96bf56cbbc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4afde810-2293-4670-bb5c-117753097ca5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85a954d37448c6d1ce4186c211e8601e" ns2:_="">
     <xsd:import namespace="4afde810-2293-4670-bb5c-117753097ca5"/>
@@ -25142,22 +25157,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{262830A7-F958-46BD-9C55-942BB744B58F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{377CB5CF-E0B7-41D0-A636-2883B4A20C3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13DE939B-0F84-4FE0-AAEA-DD4A7D1F5D72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25173,21 +25190,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{377CB5CF-E0B7-41D0-A636-2883B4A20C3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{262830A7-F958-46BD-9C55-942BB744B58F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>